--- a/pred_ohlcv/54_21/2020-01-20 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-192136.1725</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-195310.9936</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-197530.2405</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-208391.3492999999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-208598.7163999999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-206598.7163999999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-235333.1168</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-233193.2177</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-234095.8551</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-239745.4179999999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-222809.9624</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-241106.273</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-239254.5568</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-251242.2475</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-249545.8475</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-249551.3302</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-249466.179</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-246133.1882</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-238928.90236699</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-238916.96796699</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-239516.96796699</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-239487.63006699</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-240984.7562669899</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-242336.9031669899</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-243091.4077669899</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-240015.3492669899</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-240004.5544669899</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-238085.5749669899</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-222719.9893442499</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-223055.0492442499</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-222404.1471442499</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-223001.8709442499</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-222990.8709442499</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-225968.9925442499</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-225978.5621442499</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-227865.2942442499</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-228681.6430442499</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-228658.7717442499</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-228636.7717442499</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-228651.7164442499</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-221645.8145442499</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-222778.8673121299</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-224130.5673121299</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-223749.6198121299</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-223929.9198121299</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-246358.8912121299</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-251460.5814121299</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-251458.5814121299</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-251603.5813121299</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-252140.5813121299</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-255369.3041121299</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-240336.5306121299</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-244230.3868121299</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-244224.9173121299</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-613943.2895563501</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-613941.48955635</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-614528.2895563501</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-614530.0895563501</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-618923.09695635</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-659444.16055635</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-658803.2218563501</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-677544.7722563501</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-677503.3325563502</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-677901.0898563502</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-676663.2337563502</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-694007.3525563503</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-693465.6008563503</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-693925.6008563503</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-683926.4164563502</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-683062.8941563503</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-683398.7247563503</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-680439.8931563502</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-686689.1313563503</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-687693.9885563502</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-687591.5252563503</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-728055.6666563503</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-726899.1994563503</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-720223.1223563503</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-720492.3157563503</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-718306.1579563502</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-728394.1901563503</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-727021.4707563503</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-747105.7367750703</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-757784.4856246203</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-740672.6705579504</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-749952.4492002103</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-764515.8085002103</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-766156.4443002103</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-765194.6526002104</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-763694.6526002104</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-769194.6526002104</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-765647.1869002103</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-765762.3468002103</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-765088.6734847603</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-765459.5055847603</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-767940.1055847603</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-774760.2719847603</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-770849.1595847603</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-774006.1594847604</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-760043.6022080205</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-759070.3363080205</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-759281.7797080205</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-752417.4883140605</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-797752.3398140606</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-797795.0829140606</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-796094.2911140606</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-796410.3206140605</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-618041.1730272507</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-587399.3495272507</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-615853.8496272507</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-1053827.651817941</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-1055385.324517941</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-193484.1845999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-192136.1725</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-192915.3125999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-195310.9936</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-197530.2405</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-202530.2405</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-208391.3492999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-208598.7163999999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-206598.7163999999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-235333.1168</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-233193.2177</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-234095.8551</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-234100.7438999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-239745.4179999999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-222809.9624</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-241109.3542999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-241106.273</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-239254.5568</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-251242.2475</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-249545.8475</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-249551.3302</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-249466.179</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-246133.1882</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-246139.2867</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-238954.11506699</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-238928.90236699</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-238916.96796699</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-239516.96796699</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-239487.63006699</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-240984.7562669899</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-242336.9031669899</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-242325.9031669899</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-243091.4077669899</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-240015.3492669899</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-240004.5544669899</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-238711.9770669899</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-238085.5749669899</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-238935.0235669899</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-238818.3236669899</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-222719.9893442499</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-223055.0492442499</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-222404.1471442499</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-223001.8709442499</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-222990.8709442499</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-223222.1446442499</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-226788.6043442499</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-225968.9925442499</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-225966.4320442499</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-225978.5621442499</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-233770.3449442499</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-227865.2942442499</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-228681.6430442499</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-228658.7717442499</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-228636.7717442499</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-228651.7164442499</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-221645.8145442499</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-222778.8673121299</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-223448.5673121299</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-224130.5673121299</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-223749.6198121299</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-223929.9198121299</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-239507.7752121299</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-246358.8912121299</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-246360.8912121299</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-251460.5814121299</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-251458.5814121299</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-251603.5813121299</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-252142.5813121299</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-255369.3041121299</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-240336.5306121299</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-244230.3868121299</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-244224.9173121299</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-281005.9273121299</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-344911.26711213</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-335979.53461213</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-336827.87781213</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-336274.87781213</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-336373.53611213</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-335351.3114121299</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-613943.2895563501</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-613941.48955635</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-614528.2895563501</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-614530.0895563501</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-619914.2095563501</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-619294.0968563501</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-618923.09695635</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-659444.16055635</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-658952.08995635</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-658803.2218563501</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-647631.5486563501</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-654872.5117563502</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-677544.7722563501</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-677503.3325563502</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-677901.0898563502</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-676663.2337563502</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-676646.2337563502</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-676643.2337563502</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-689227.8583563502</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-689666.2185563502</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-693881.1878563502</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-694009.0525563502</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-694007.3525563503</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-693465.6008563503</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-693925.6008563503</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-683926.4164563502</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-683062.8941563503</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-683398.7247563503</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-680439.8931563502</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-686751.8313563502</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-686689.1313563503</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-686709.1313563503</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-687826.9885563502</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-687693.9885563502</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-687591.5252563503</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-687769.5033563502</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-720654.4704563502</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-728055.6666563503</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-730968.6580563503</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-726899.1994563503</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-720223.1223563503</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-720492.3157563503</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-718306.1579563502</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-728394.1901563503</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-727021.4707563503</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-742799.7414750704</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-742789.7414750704</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-747105.7367750703</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-757784.4856246203</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-740672.6705579504</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-748495.6353002103</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-749952.4492002103</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-749928.0870002103</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-750928.0870002103</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-756245.0125002103</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-764515.8085002103</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-766156.4443002103</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-765662.9752002103</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-765194.6526002104</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-763694.6526002104</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-769194.6526002104</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-769369.1723002103</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-765647.1869002103</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-765762.3468002103</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-765088.6734847603</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-765461.2055847603</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-765459.5055847603</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-765471.5055847603</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-767940.1055847603</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-775633.7429847603</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-774760.2719847603</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-770849.1595847603</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-774006.1594847604</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-760043.6022080205</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-759070.3363080205</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-759281.7797080205</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-752417.4883140605</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-797752.3398140606</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-797793.0829140606</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-797795.0829140606</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-796094.2911140606</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-796410.3206140605</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-794858.2659608704</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-794852.2659608704</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-793774.1659608705</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-626204.8388272506</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-618041.1730272507</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-587399.3495272507</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-615853.8496272507</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-1088115.775383641</v>
       </c>
       <c r="H741">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H762">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H763">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-1055377.882917941</v>
       </c>
       <c r="H765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-1054879.162917941</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-1055801.684517941</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
